--- a/biology/Médecine/Adolf_Kussmaul/Adolf_Kussmaul.xlsx
+++ b/biology/Médecine/Adolf_Kussmaul/Adolf_Kussmaul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Kussmaul (ou Philipp Adolf Konrad Kußmaul pour son nom complet en allemand), né à Graben près de Karlsruhe le 22 février 1822 et mort à Heidelberg le 28 mai 1902 , est un médecin et chercheur badois, également coauteur du personnage de Biedermeier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Kussmaul est issue d'une lignée de médecins. Après des études à Mannheim et Heidelberg, il entreprend en 1840 des études de médecine à l'université de Heidelberg. En 1846, il passe l'examen d'État et devient assistant de Karl von Pfeufer. En 1847 et 1848, il achève ses études à Vienne et à Prague. Il sert ensuite pendant deux ans comme médecin militaire dans l'armée badoise lors de la guerre contre le Danemark. Il quitte l'armée en 1849 et jusqu'en 1853 exerce comme praticien à Kandern (Forêt-Noire), où il se marie en 1850.
 Des raisons de santé l'empêchent de continuer à exercer en cabinet. Il se rend à Wurtzbourg, où enseigne Rudolf Virchow, pour travailler à sa thèse. En 1855, à Würzburg, il devient docteur en médecine et passe la même année un doctorat d'État à Heidelberg.
@@ -544,13 +558,15 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il apporta de nombreuses et solides contributions dans beaucoup de domaines, entre autres la psychologie, la chimie physiologique, la pathologie et la neurologie. En outre, il mit au point certains procédés de diagnostic et de thérapeutique des plus utiles, notamment :
 Un rythme respiratoire observé dans les acidoses métaboliques, notamment cétoniques dans le diabète, appelé la respiration de Kussmaul (ou plus souvent dyspnée de  Kussmaul) : une respiration ample et profonde, pénible, faisant suite à une polypnée rapide et superficielle. Elle reflète l'épuisement du poumon qui n'arrive plus à évacuer assez de dioxyde de carbone pour compenser l'acidose métabolique. Elle est donc un signe de mauvais pronostic, annonciateur d'une défaillance d'organe et d'un coma, constat fait par Kussmaul à l'époque ;
 la pompe d'estomac, une technique chirurgicale pour traiter la sténose (rétrécissement) du pylore ;
 le prélèvement du suc gastrique pour examen ;
-il fut un des pionniers des essais de gastroscopie en 1868, mais du abandonner son projet, faute de source lumineuse assez puissante et fiable [1];
+il fut un des pionniers des essais de gastroscopie en 1868, mais du abandonner son projet, faute de source lumineuse assez puissante et fiable ;
 la description des pouls paradoxaux lors d'une péricardite (appelé pouls de Kussmaul) ;
 la description de la maladie des artères dite de Kussmaul-Maier.
 Avec son compagnon d'études Ludwig Eichrodt, il inventa la figure du maître d'école dans la campagne souabe, Gottlieb Biedermeier, un personnage à qui il suffit pour être heureux sur terre d'avoir sa modeste demeure, son petit jardin étroit, ses vêtements tachés et son sort misérable d'instituteur méprisé dans un village. C'est toute l'époque qu'on nomma par la suite d'après ce personnage. Il utilise le pseudonyme de (Dr) Oribasius.
